--- a/PI-2023-24 Self-Assessment.xlsx
+++ b/PI-2023-24 Self-Assessment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\UNI\2º Semestre\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554FB09E-AFC9-4B29-B323-9F0BC1FE7FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5301736C-5574-48AA-AEB4-0CE3315B8ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -847,58 +847,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1417,8 +1366,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="57" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A9" zoomScale="76" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1525,17 +1474,25 @@
       <c r="C10" s="22">
         <v>1230544</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="D10" s="50">
+        <v>4</v>
+      </c>
+      <c r="E10" s="23">
+        <v>4</v>
+      </c>
+      <c r="F10" s="24">
+        <v>4</v>
+      </c>
+      <c r="G10" s="24">
+        <v>4</v>
+      </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="32" t="e">
+      <c r="L10" s="32">
         <f t="shared" ref="L10:L17" si="0">AVERAGE(D10:K10)</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1543,17 +1500,25 @@
       <c r="C11" s="6">
         <v>1230543</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="6"/>
+      <c r="D11" s="7">
+        <v>4</v>
+      </c>
+      <c r="E11" s="50">
+        <v>4</v>
+      </c>
+      <c r="F11" s="21">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6">
+        <v>4</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="33" t="e">
+      <c r="L11" s="33">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1587,17 +1552,25 @@
       <c r="C13" s="6">
         <v>1230432</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="50"/>
+      <c r="D13" s="6">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4</v>
+      </c>
+      <c r="G13" s="50">
+        <v>4</v>
+      </c>
       <c r="H13" s="21"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="33" t="e">
+      <c r="L13" s="33">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1687,7 +1660,7 @@
       </c>
       <c r="F18" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="G18" s="30">
         <f t="shared" si="1"/>
@@ -1947,8 +1920,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="47" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="62" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.08203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2308,8 +2281,12 @@
       <c r="B14" s="18">
         <v>1230432</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="37"/>
+      <c r="C14" s="18">
+        <v>4</v>
+      </c>
+      <c r="D14" s="37">
+        <v>4</v>
+      </c>
       <c r="E14" s="15" t="s">
         <v>28</v>
       </c>
@@ -2336,8 +2313,12 @@
       <c r="B15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="37"/>
+      <c r="C15" s="18">
+        <v>4</v>
+      </c>
+      <c r="D15" s="37">
+        <v>4</v>
+      </c>
       <c r="E15" s="15" t="s">
         <v>28</v>
       </c>
@@ -2396,8 +2377,12 @@
       <c r="B17" s="18">
         <v>1230543</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="18">
+        <v>4</v>
+      </c>
+      <c r="D17" s="37">
+        <v>4</v>
+      </c>
       <c r="E17" s="15" t="s">
         <v>28</v>
       </c>
@@ -2456,8 +2441,12 @@
       <c r="B19" s="18">
         <v>1230544</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="18">
+        <v>4</v>
+      </c>
+      <c r="D19" s="37">
+        <v>4</v>
+      </c>
       <c r="E19" s="15" t="s">
         <v>28</v>
       </c>
@@ -2484,8 +2473,12 @@
       <c r="B20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="18">
+        <v>5</v>
+      </c>
+      <c r="D20" s="37">
+        <v>5</v>
+      </c>
       <c r="E20" s="15" t="s">
         <v>28</v>
       </c>
@@ -2576,8 +2569,12 @@
       <c r="B23" s="18">
         <v>1230544</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="18">
+        <v>4</v>
+      </c>
+      <c r="D23" s="37">
+        <v>4</v>
+      </c>
       <c r="E23" s="15" t="s">
         <v>28</v>
       </c>
@@ -2604,8 +2601,12 @@
       <c r="B24" s="18">
         <v>1230543</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="37"/>
+      <c r="C24" s="18">
+        <v>4</v>
+      </c>
+      <c r="D24" s="37">
+        <v>4</v>
+      </c>
       <c r="E24" s="15" t="s">
         <v>28</v>
       </c>
@@ -2632,8 +2633,12 @@
       <c r="B25" s="18">
         <v>1230543</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="37"/>
+      <c r="C25" s="18">
+        <v>5</v>
+      </c>
+      <c r="D25" s="37">
+        <v>5</v>
+      </c>
       <c r="E25" s="15" t="s">
         <v>28</v>
       </c>
@@ -2660,8 +2665,12 @@
       <c r="B26" s="18">
         <v>1230544</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="37"/>
+      <c r="C26" s="18">
+        <v>4</v>
+      </c>
+      <c r="D26" s="37">
+        <v>4</v>
+      </c>
       <c r="E26" s="15" t="s">
         <v>28</v>
       </c>
@@ -2752,8 +2761,12 @@
       <c r="B29" s="18">
         <v>1230432</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="37"/>
+      <c r="C29" s="18">
+        <v>5</v>
+      </c>
+      <c r="D29" s="37">
+        <v>5</v>
+      </c>
       <c r="E29" s="15" t="s">
         <v>28</v>
       </c>
@@ -2780,8 +2793,12 @@
       <c r="B30" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="37"/>
+      <c r="C30" s="18">
+        <v>4</v>
+      </c>
+      <c r="D30" s="37">
+        <v>4</v>
+      </c>
       <c r="E30" s="15" t="s">
         <v>28</v>
       </c>
@@ -2840,8 +2857,12 @@
       <c r="B32" s="18">
         <v>1230543</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="38"/>
+      <c r="C32" s="18">
+        <v>4</v>
+      </c>
+      <c r="D32" s="38">
+        <v>4</v>
+      </c>
       <c r="E32" s="15" t="s">
         <v>28</v>
       </c>
@@ -2868,8 +2889,12 @@
       <c r="B33" s="36">
         <v>1230432</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="38"/>
+      <c r="C33" s="18">
+        <v>4</v>
+      </c>
+      <c r="D33" s="38">
+        <v>4</v>
+      </c>
       <c r="E33" s="15" t="s">
         <v>28</v>
       </c>
@@ -2896,8 +2921,12 @@
       <c r="B34" s="18">
         <v>1230544</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="38"/>
+      <c r="C34" s="18">
+        <v>4</v>
+      </c>
+      <c r="D34" s="38">
+        <v>4</v>
+      </c>
       <c r="E34" s="15" t="s">
         <v>28</v>
       </c>
@@ -2981,18 +3010,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3180,6 +3209,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -3191,14 +3228,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
